--- a/회의내용/기능정의서_201019.xlsx
+++ b/회의내용/기능정의서_201019.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjhjh\Desktop\2020뉴딜_공간정보SW\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSM\Desktop\ParkBox\회의내용\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA098E18-9D40-421E-8143-DE0EBB0289F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D0D8E015-B8B9-401D-96AA-D579F029DCE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,8 +269,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -406,13 +405,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,11 +639,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,189 +1030,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66ED0455-B08E-459D-BAA2-8907BF5E7D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1">
       <c r="A2" s="8"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="17.25" thickBot="1">
       <c r="A3" s="9"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="17.25" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="17.25" thickBot="1">
       <c r="A5" s="9"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="17.25" thickBot="1">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="17.25" thickBot="1">
       <c r="A8" s="8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="17.25" thickBot="1">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="17.25" thickBot="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="17.25" thickBot="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="17.25" thickBot="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="17.25" thickBot="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
       <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="17.25" thickBot="1">
       <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="17.25" thickBot="1">
       <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="17.25" thickBot="1">
       <c r="A17" s="8"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="17.25" thickBot="1">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="17.25" thickBot="1">
       <c r="A19" s="10"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="17.25" thickBot="1">
       <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="17.25" thickBot="1">
       <c r="A21" s="10"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="17.25" thickBot="1">
       <c r="A22" s="8"/>
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="17.25" thickBot="1">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="17.25" thickBot="1">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="17.25" thickBot="1">
       <c r="A25" s="10"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -971,14 +1236,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BCB72A-340C-4C33-B23F-BED9F53956E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
@@ -986,290 +1251,346 @@
     <col min="4" max="5" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="22"/>
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="22"/>
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="22"/>
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="22"/>
+      <c r="B13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A29" s="23"/>
+      <c r="B29" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="33" t="s">
         <v>56</v>
       </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
